--- a/用例数据/深A/名义持有明细股份管理/测试结果.xlsx
+++ b/用例数据/深A/名义持有明细股份管理/测试结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
   <si>
     <t>ORDERTYPE</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>PATHDESKID</t>
-  </si>
-  <si>
-    <t>20220920000000</t>
   </si>
   <si>
     <t>TG90</t>
@@ -124,8 +121,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20221012000000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0809950001          </t>
+  </si>
+  <si>
+    <t>0809950001            1</t>
+  </si>
+  <si>
+    <t>0809950001            9</t>
   </si>
 </sst>
 </file>
@@ -454,7 +465,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,7 +479,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -509,382 +520,388 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
